--- a/Results/sum_table_1031.xlsx
+++ b/Results/sum_table_1031.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="total.survey.point" sheetId="1" r:id="rId1"/>
@@ -251,11 +251,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -644,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -724,15 +725,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:Q16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="17" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="17" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1434,6 +1437,68 @@
       <c r="Q16">
         <f t="shared" si="0"/>
         <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C17" s="2">
+        <f>AVERAGE(C2:C15)</f>
+        <v>4.6363636363636367</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" ref="D17:Q17" si="1">AVERAGE(D2:D15)</f>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>5.4615384615384617</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="1"/>
+        <v>3.3076923076923075</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3636363636363633</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="1"/>
+        <v>4.2222222222222223</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="1"/>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="1"/>
+        <v>4.7692307692307692</v>
       </c>
     </row>
   </sheetData>
@@ -1447,13 +1512,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C14" sqref="C14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="7" width="13.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -1985,6 +2053,68 @@
       <c r="Q14">
         <f t="shared" si="0"/>
         <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
+        <f>AVERAGE(C2:C13)</f>
+        <v>3.5714285714285716</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15:Q15" si="1">AVERAGE(D2:D13)</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.875</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>1.875</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2274,10 +2404,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="B12" sqref="B12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2528,6 +2658,32 @@
       <c r="G11">
         <f t="shared" si="0"/>
         <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>AVEDEV(F2:F11)</f>
+        <v>4.4799999999999995</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:G12" si="1">AVEDEV(G2:G11)</f>
+        <v>5.7</v>
+      </c>
+      <c r="D12" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="E12" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F12" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G12" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -2541,7 +2697,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="C13" sqref="C13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3044,6 +3200,52 @@
       <c r="M12">
         <f>SUM(M2:M11)</f>
         <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <f>AVERAGE(C2:C11)</f>
+        <v>96.2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:M13" si="1">AVERAGE(D2:D11)</f>
+        <v>158.6</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>18.8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>940.2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>16.8</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>53.6</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>198.3</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>19.3</v>
       </c>
     </row>
     <row r="19" spans="15:19" x14ac:dyDescent="0.3">
@@ -3119,12 +3321,15 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:L12"/>
+      <selection activeCell="C13" sqref="C13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="9.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3444,6 +3649,48 @@
         <v>2</v>
       </c>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <f>AVERAGE(C2:C11)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:L13" si="1">AVERAGE(D2:D11)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>3.7</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
     <row r="19" spans="15:19" x14ac:dyDescent="0.3">
       <c r="P19" t="s">
         <v>39</v>

--- a/Results/sum_table_1031.xlsx
+++ b/Results/sum_table_1031.xlsx
@@ -272,6 +272,1087 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>資料數</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'county.group'!$J$25:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'county.group'!$C$16:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43B6-42EC-A134-FE891BA6334B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>樣區數</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'county.group'!$J$25:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'county.group'!$H$16:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-43B6-42EC-A134-FE891BA6334B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>樣點數</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'county.group'!$J$25:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'county.group'!$M$16:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-43B6-42EC-A134-FE891BA6334B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="588302896"/>
+        <c:axId val="588304144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="588302896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588304144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="588304144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588302896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -725,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1501,12 +2582,30 @@
         <v>4.7692307692307692</v>
       </c>
     </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>2015</v>
+      </c>
+      <c r="K25">
+        <v>2016</v>
+      </c>
+      <c r="L25">
+        <v>2017</v>
+      </c>
+      <c r="M25">
+        <v>2018</v>
+      </c>
+      <c r="N25">
+        <v>2019</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:Q15">
     <sortCondition ref="A2:A15"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Results/sum_table_1031.xlsx
+++ b/Results/sum_table_1031.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="total.survey.point" sheetId="1" r:id="rId1"/>
@@ -1324,16 +1324,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1642,15 +1642,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1671,8 +1671,12 @@
       <c r="C2">
         <v>2776</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <f>AVERAGE(B2:C2)</f>
+        <v>2842.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1682,8 +1686,12 @@
       <c r="C3">
         <v>2672</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">AVERAGE(B3:C3)</f>
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1693,8 +1701,12 @@
       <c r="C4">
         <v>2603</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2641.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1704,8 +1716,12 @@
       <c r="C5">
         <v>2775</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1714,6 +1730,10 @@
       </c>
       <c r="C6">
         <v>2554</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2594</v>
       </c>
     </row>
   </sheetData>
@@ -1808,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3230,7 +3250,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3503,10 +3523,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3514,7 +3534,7 @@
     <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3534,7 +3554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3554,8 +3574,28 @@
         <f>SUM(C2:F2)</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <f>C2+C3</f>
+        <v>9</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="L2:Q2" si="0">D2+D3</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="R2">
+        <f>G2+G3</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3572,11 +3612,11 @@
         <v>21</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="0">SUM(C3:F3)</f>
+        <f t="shared" ref="G3:G11" si="1">SUM(C3:F3)</f>
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3590,11 +3630,31 @@
         <v>13</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <f t="shared" ref="L4:Q4" si="2">C4+C5</f>
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="R4">
+        <f>G4+G5</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3614,11 +3674,11 @@
         <v>16</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3638,11 +3698,31 @@
         <v>13</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N6">
+        <f t="shared" ref="L6:Q6" si="3">C6+C7</f>
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="R6">
+        <f>G6+G7</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3662,11 +3742,11 @@
         <v>13</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3686,11 +3766,31 @@
         <v>20</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <f t="shared" ref="L8:Q8" si="4">C8+C9</f>
+        <v>12</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="R8">
+        <f>G8+G9</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3707,11 +3807,11 @@
         <v>28</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3731,11 +3831,31 @@
         <v>27</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <f t="shared" ref="L10:Q10" si="5">C10+C11</f>
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="R10">
+        <f>G10+G11</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3755,33 +3875,33 @@
         <v>18</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12">
         <f>AVEDEV(F2:F11)</f>
         <v>4.4799999999999995</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:G12" si="1">AVEDEV(G2:G11)</f>
+        <f t="shared" ref="C12:G12" si="6">AVEDEV(G2:G11)</f>
         <v>5.7</v>
       </c>
       <c r="D12" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="E12" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="F12" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="G12" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
